--- a/KetQuaTest_OrderDetailManagerServlet.xlsx
+++ b/KetQuaTest_OrderDetailManagerServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -35,10 +35,50 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>ORD_DET_03</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống (Service)</t>
+  </si>
+  <si>
+    <t>Service Exception</t>
+  </si>
+  <si>
+    <t>1. orderId=10
+2. Service ném lỗi
+3. Catch &amp; Forward Error</t>
+  </si>
+  <si>
+    <t>Forward → error.jsp</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>ORD_DET_02</t>
+  </si>
+  <si>
+    <t>ID lỗi (Chữ)</t>
+  </si>
+  <si>
+    <t>orderId = abc</t>
+  </si>
+  <si>
+    <t>1. orderId='abc'
+2. ParseInt lỗi
+3. Catch &amp; Forward Error</t>
+  </si>
+  <si>
     <t>ORD_DET_01</t>
   </si>
   <si>
     <t>Xem chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>orderId = 100</t>
   </si>
   <si>
     <t>1. orderId=100
@@ -46,16 +86,7 @@
 3. Forward JSP</t>
   </si>
   <si>
-    <t>orderId = 100</t>
-  </si>
-  <si>
     <t>Forward → View-order-detail.jsp</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -133,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,8 +172,8 @@
   <cols>
     <col min="1" max="1" width="12.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.12890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.6953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.26953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.37109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
@@ -194,6 +225,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
